--- a/name_region.xlsx
+++ b/name_region.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:C485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>stad) Västergötland (Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>stad) i Dalarna (Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>stad) i Hälsingland (Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Hallstaberg</t>
+          <t>Halmstad</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Halmstad</t>
+          <t>Hammarö</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Hammarö</t>
+          <t>Hammerdal D</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hammerdal D</t>
+          <t>Handsjön D</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Handsjön D</t>
+          <t>Haparanda D</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Haparanda D</t>
+          <t>Harads D</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Harads D</t>
+          <t>Hattsjöbäcken D</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Hattsjöbäcken D</t>
+          <t>Heden</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Heden</t>
+          <t>Hedesunda</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hedesunda</t>
+          <t>Hedeviken</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hedeviken</t>
+          <t>Hejnum</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Hejnum</t>
+          <t>Hellerö</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hellerö</t>
+          <t>Hemse</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Hemse</t>
+          <t>Hennan D</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Hennan D</t>
+          <t>Henån</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Henån</t>
+          <t>Herrljunga D</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Herrljunga D</t>
+          <t>Hestra D</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Hestra D</t>
+          <t>Hid D</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hid D</t>
+          <t>Hillersboda</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hillersboda</t>
+          <t>Hillsand</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hillsand</t>
+          <t>Hinshult</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hinshult</t>
+          <t>Hjo</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Hjo</t>
+          <t>Hjortkvarn D</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hjortkvarn D</t>
+          <t>Hoburg D</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hoburg D</t>
+          <t>Hofors</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hofors</t>
+          <t>Holmbo D</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Holmbo D</t>
+          <t>Holmfors D</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Holmfors D</t>
+          <t>Holmön D</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Holmön D</t>
+          <t>Horred</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Horred</t>
+          <t>Hov</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Hov</t>
+          <t>Hudiksvall</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Hudiksvall</t>
+          <t>Hult D</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Hult D</t>
+          <t>Hyltan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hyltan</t>
+          <t>Hyndevad</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Hyndevad</t>
+          <t>Häggberget D</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Häggberget D</t>
+          <t>Häggårda</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Häggårda</t>
+          <t>Hälleforsnäs D</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hälleforsnäs D</t>
+          <t>Härjeåsjön</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Härjeåsjön</t>
+          <t>Härnebo</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Härnebo</t>
+          <t>Härnösand</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Härnösand</t>
+          <t>Härryda</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Härryda</t>
+          <t>Härsnäs</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Härsnäs</t>
+          <t>Hässleby D</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Hässleby D</t>
+          <t>Håvelund</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Håvelund</t>
+          <t>Högboda</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Högboda</t>
+          <t>Högemålen D</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Högemålen D</t>
+          <t>Höglekardalen</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Höglekardalen</t>
+          <t>Högsbo</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Högsbo</t>
+          <t>Höljes</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Höljes</t>
+          <t>Idre D</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Idre D</t>
+          <t>Jarhois</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Jarhois</t>
+          <t>Jukkasjärvi D</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Jukkasjärvi D</t>
+          <t>Jäckvik</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Jäckvik</t>
+          <t>Järpströmmen</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Järpströmmen</t>
+          <t>Järvsö</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Järvsö</t>
+          <t>Jönköping</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Jönköping</t>
+          <t>Jörn D</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Jörn D</t>
+          <t>Kalix D</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Kalix D</t>
+          <t>Kalmar D</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kalmar D</t>
+          <t>Kalvträsk D</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Kalvträsk D</t>
+          <t>Kangos D</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Kangos D</t>
+          <t>Karesuando</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Karesuando</t>
+          <t>Karlshamn</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Karlshamn</t>
+          <t>Karlskoga</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Karlskoga</t>
+          <t>Karlstad-Skåre</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Karlstad-Skåre</t>
+          <t>Karungi</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Karungi</t>
+          <t>Katterjåkk</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Katterjåkk</t>
+          <t>Kaxås-Åflo D</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Katterjåkk A</t>
+          <t>Kilafors D</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Kaxås-Åflo D</t>
+          <t>Kilagården</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Kilafors D</t>
+          <t>Kindsboda</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Kilagården</t>
+          <t>Kindsjön D</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Kindsboda</t>
+          <t>Kiruna</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>stad) i Lappland (Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Kindsjön D</t>
+          <t>Kisa D</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Kiruna</t>
+          <t>Kittelfjäll D</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Kisa D</t>
+          <t>Klippan</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Kittelfjäll D</t>
+          <t>Klöverträsk D</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Klippan</t>
+          <t>Knopparp D</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Klöverträsk D</t>
+          <t>Knäred D</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Knopparp D</t>
+          <t>Koler D</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Knäred D</t>
+          <t>Kolsva D</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Koler D</t>
+          <t>Kopparberg D</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Kolsva D</t>
+          <t>Korsberga</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Kopparberg D</t>
+          <t>Kramfors</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Korsberga</t>
+          <t>Kristianstad</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Kramfors</t>
+          <t>Kristinehamn</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Kristianstad</t>
+          <t>Krokshult D</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Kristinehamn</t>
+          <t>Kråkemåla</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Krokshult D</t>
+          <t>Kungsberget D</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Kråkemåla</t>
+          <t>Kungsör</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Kungsberget D</t>
+          <t>Kusmark D</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kungsör</t>
+          <t>Kvikkjokk-Årrenjarka</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3376,12 +3376,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Kusmark D</t>
+          <t>Kypasjärvi D</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Kvikkjokk-Årrenjarka</t>
+          <t>Kyrktåsjö D</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Kypasjärvi D</t>
+          <t>Källebäcken</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Kyrktåsjö D</t>
+          <t>Källsjö</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Källebäcken</t>
+          <t>Kärna</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Källsjö</t>
+          <t>Kätkesuando</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Kärna</t>
+          <t>Kävsjö D</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Kätkesuando</t>
+          <t>Kållered D</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Kävsjö D</t>
+          <t>Kölsillre</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Kållered D</t>
+          <t>Laholm D</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Kölsillre</t>
+          <t>Lainio</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Laholm D</t>
+          <t>Landskrona D</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Lainio</t>
+          <t>Landsort</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Landskrona D</t>
+          <t>Lanna</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Landsort</t>
+          <t>Lannavaara D</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Lanna</t>
+          <t>Latikberg D</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Lannavaara D</t>
+          <t>Leksand</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Latikberg D</t>
+          <t>Lesjöfors D</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Leksand</t>
+          <t>Lessebo</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Lesjöfors D</t>
+          <t>Letafors D</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Lessebo</t>
+          <t>Lidhult D</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -3691,12 +3691,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Letafors D</t>
+          <t>Lidköping</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lidhult D</t>
+          <t>Lillhamra D</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lidköping</t>
+          <t>Linhult D</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Lillhamra D</t>
+          <t>Linköping</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Linhult D</t>
+          <t>Malmslätt</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Linköping</t>
+          <t>Ljugarn D</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Malmslätt</t>
+          <t>Ljungby D</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ljugarn D</t>
+          <t>Ljusdals-Valsjön</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ljungby D</t>
+          <t>Ljusnedal</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ljusdals-Valsjön</t>
+          <t>Lobonäs D</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ljusnedal</t>
+          <t>Los D</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -3856,12 +3856,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Lobonäs D</t>
+          <t>Louisefred</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Los D</t>
+          <t>Ludvika</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -3886,12 +3886,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Louisefred</t>
+          <t>Luleå-Bergnäset</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ludvika</t>
+          <t>Luleå Flygplats</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -3916,12 +3916,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Luleå-Bergnäset</t>
+          <t>Lund</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Luleå Flygplats</t>
+          <t>Lundsjön</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -3946,12 +3946,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Lund</t>
+          <t>Lyckeby</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Blekinge län</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Lundsjön</t>
+          <t>Lysekil D</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -3976,12 +3976,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Lyckeby</t>
+          <t>Långan D</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lysekil D</t>
+          <t>Löten D</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -4006,12 +4006,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Långan D</t>
+          <t>Löttorp D</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Löten D</t>
+          <t>Lövberga D</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4036,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Löttorp D</t>
+          <t>Lövestad</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -4051,12 +4051,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Lövberga D</t>
+          <t>Lövånger</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -4066,12 +4066,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Lövestad</t>
+          <t>Malkälen D</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Lövånger</t>
+          <t>Malmberget</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -4096,12 +4096,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Malkälen D</t>
+          <t>Malmbäck D</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4111,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Malmberget</t>
+          <t>Malungsfors</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -4126,12 +4126,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Malmbäck D</t>
+          <t>Malå</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Malungsfors</t>
+          <t>Marby D</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -4156,12 +4156,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Malå</t>
+          <t>Marbäck D</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Marby D</t>
+          <t>Mariefred</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>stad) i Strängnäs kommun, Södermanland (Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Marbäck D</t>
+          <t>Mariestad</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Mariefred</t>
+          <t>Markaryd</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Mariestad</t>
+          <t>Markusvinsa</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -4231,12 +4231,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Markaryd</t>
+          <t>Mjölkbäcken</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -4246,12 +4246,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Markusvinsa</t>
+          <t>Moheda D</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Mjölkbäcken</t>
+          <t>Mollsjönäs D</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -4276,12 +4276,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Moheda D</t>
+          <t>Mosekälla</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -4291,12 +4291,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mollsjönäs D</t>
+          <t>Moskosel</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -4306,12 +4306,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Mosekälla</t>
+          <t>Motala</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -4321,12 +4321,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Moskosel</t>
+          <t>Multrå D</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Motala</t>
+          <t>Munka-Ljungby D</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Multrå D</t>
+          <t>Murjek D</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -4366,12 +4366,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Munka-Ljungby D</t>
+          <t>Myckelgensjö</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Murjek D</t>
+          <t>Myre</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4396,12 +4396,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Myckelgensjö</t>
+          <t>Myskelåsen D</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Myre</t>
+          <t>Mälgåsen D</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4426,12 +4426,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Myskelåsen D</t>
+          <t>Mästerby</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Mälgåsen D</t>
+          <t>Mångsbodarna</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Mästerby</t>
+          <t>Mönsterås D</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4471,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Mångsbodarna</t>
+          <t>Mörbylånga</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4486,12 +4486,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Mönsterås D</t>
+          <t>Mörsil</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -4501,12 +4501,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Mörbylånga</t>
+          <t>Nianfors</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Mörsil</t>
+          <t>Nobynäs D</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -4531,12 +4531,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Nianfors</t>
+          <t>Nora-Östanö D</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4546,12 +4546,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Nobynäs D</t>
+          <t>Norberg</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Nora-Östanö D</t>
+          <t>Nordanbäck D</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Norberg</t>
+          <t>Nordanås</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Nordanbäck D</t>
+          <t>Norderön</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -4606,12 +4606,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Nordanås</t>
+          <t>Nornäs D</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -4621,12 +4621,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Norderön</t>
+          <t>Norra Möckleby D</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4636,12 +4636,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Nornäs D</t>
+          <t>Norra Ströö</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -4651,12 +4651,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Norra Möckleby D</t>
+          <t>Norra Vi D</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -4666,12 +4666,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Norra Ströö</t>
+          <t>Norrby S</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Norra Vi D</t>
+          <t>Norrköping-SMHI</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Norrby S</t>
+          <t>Norrveda</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Norrköping-SMHI</t>
+          <t>Norsborg 2</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -4726,12 +4726,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Norrveda</t>
+          <t>Nyhammar</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Norsborg 2</t>
+          <t>Nyhamnsläge</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Nyhammar</t>
+          <t>Nyköping</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -4771,12 +4771,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Nyhamnsläge</t>
+          <t>Nynäshamn</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -4786,12 +4786,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Nyköping</t>
+          <t>Nämdö</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -4801,12 +4801,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Nynäshamn</t>
+          <t>Näshulta</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Nämdö</t>
+          <t>Näsåker</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -4831,12 +4831,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Näshulta</t>
+          <t>Nävelsjö</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -4846,12 +4846,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Näsåker</t>
+          <t>Ockelbo</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Nävelsjö</t>
+          <t>Olastorp</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -4876,12 +4876,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ockelbo</t>
+          <t>Olofström</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Blekinge län</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Ockelbo 1</t>
+          <t>Omberg D</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4906,12 +4906,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Olastorp</t>
+          <t>Onsala D</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4921,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Olofström</t>
+          <t>Orrefors D</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -4936,12 +4936,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Omberg D</t>
+          <t>Orsa D</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Onsala D</t>
+          <t>Osby</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Orrefors D</t>
+          <t>Oskarshamn</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Orsa D</t>
+          <t>Oxelösund</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -4996,12 +4996,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Osby</t>
+          <t>Parakka</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Oskarshamn</t>
+          <t>Parkajoki</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5026,12 +5026,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Oxelösund</t>
+          <t>Persberg</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Parakka</t>
+          <t>Piteå</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5056,12 +5056,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Parkajoki</t>
+          <t>Pjätteryd</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -5071,12 +5071,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Persberg</t>
+          <t>Prästkulla</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Piteå</t>
+          <t>Puottaure</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Pjätteryd</t>
+          <t>Ramsjöholm</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5116,12 +5116,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Prästkulla</t>
+          <t>Reftele D</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5131,12 +5131,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Puottaure</t>
+          <t>Remningstorp</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -5146,12 +5146,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ramsjöholm</t>
+          <t>Resele</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5161,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Reftele D</t>
+          <t>Rickleå</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -5176,12 +5176,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Remningstorp</t>
+          <t>Riddarhyttan</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -5191,12 +5191,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Resele</t>
+          <t>Rissna D</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Rickleå</t>
+          <t>Ronneby-Bredåkra</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Blekinge län</t>
         </is>
       </c>
     </row>
@@ -5221,12 +5221,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Riddarhyttan</t>
+          <t>Rossö</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Rissna D</t>
+          <t>Rossön</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Ronneby-Bredåkra</t>
+          <t>Rusksele D</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -5266,12 +5266,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Rossö</t>
+          <t>Räfsebo D</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5281,12 +5281,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Rossön</t>
+          <t>Rödupp</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5296,12 +5296,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Rusksele D</t>
+          <t>Rörastrand</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Räfsebo D</t>
+          <t>Rörvik D</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Rödupp</t>
+          <t>Saarikoski D</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5341,12 +5341,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Rörastrand</t>
+          <t>Sadiliden</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -5356,12 +5356,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Rörvik D</t>
+          <t>Sadjem D</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Saarikoski D</t>
+          <t>Saittarova D</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -5386,12 +5386,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Sadiliden</t>
+          <t>Sala</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Sadjem D</t>
+          <t>Sanda</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -5416,12 +5416,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Saittarova D</t>
+          <t>Sandhamn D</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -5431,12 +5431,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sala</t>
+          <t>Sandhem</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5446,12 +5446,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Sanda</t>
+          <t>Segerstad</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Sandhamn D</t>
+          <t>Sidsjö D</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -5476,12 +5476,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Segerstad</t>
+          <t>Silvergruvan</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -5491,12 +5491,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Sidsjö D</t>
+          <t>Simeå</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -5506,12 +5506,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Silvergruvan</t>
+          <t>Sjöbo D</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Simeå</t>
+          <t>Sjötofta D</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -5536,12 +5536,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Sjöbo D</t>
+          <t>Skara</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Sjötofta D</t>
+          <t>Skattungbyn D</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -5566,12 +5566,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Skara</t>
+          <t>Skedemosse D</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -5581,12 +5581,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Skattungbyn D</t>
+          <t>Skeppshult D</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5596,12 +5596,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Skedemosse D</t>
+          <t>Skröven D</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5611,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Skeppshult D</t>
+          <t>Sköldinge</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -5626,12 +5626,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Skröven D</t>
+          <t>Skövde</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Sköldinge</t>
+          <t>Slättån</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Skövde</t>
+          <t>Sollefteå</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -5671,12 +5671,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Slättån</t>
+          <t>Sorsele</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -5686,12 +5686,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Sollefteå</t>
+          <t>Spannarboda D</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -5701,12 +5701,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Sorsele</t>
+          <t>Stehag</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Spannarboda D</t>
+          <t>Stiby</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -5731,12 +5731,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Stehag</t>
+          <t>Stockholm</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -5746,12 +5746,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Stiby</t>
+          <t>Stora Skedvi</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Stockholm-Observatoriekullen</t>
+          <t>Storbron</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -5776,12 +5776,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Stora Skedvi</t>
+          <t>Stordalen-Midlanda D</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Storbron</t>
+          <t>Storlien-Storvallen</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -5806,12 +5806,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Stordalen-Midlanda D</t>
+          <t>Stormyra</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -5821,12 +5821,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Storlien-Storvallen</t>
+          <t>Strängnäs-Vansö</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -5836,12 +5836,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Stormyra</t>
+          <t>Strömsund-Edet D</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -5851,12 +5851,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Strängnäs-Vansö</t>
+          <t>Ställdalen</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Strömsund-Edet D</t>
+          <t>Stångsmåla D</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Blekinge län</t>
         </is>
       </c>
     </row>
@@ -5881,12 +5881,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ställdalen</t>
+          <t>Stöllet D</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Stångsmåla D</t>
+          <t>Sunneränga</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -5911,12 +5911,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Stöllet D</t>
+          <t>Svaneholm D</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -5926,12 +5926,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Sunneränga</t>
+          <t>Svanstein</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5941,12 +5941,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Svaneholm D</t>
+          <t>Svappavaara</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Svanstein</t>
+          <t>Svartberget D</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Svappavaara</t>
+          <t>Svedjelandet</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -5986,12 +5986,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Svartberget D</t>
+          <t>Sveg-Eggarna</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Svedjelandet</t>
+          <t>Svenska Högarna</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sveg-Eggarna</t>
+          <t>Sya</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -6031,12 +6031,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Svenska Högarna</t>
+          <t>Säffle</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -6046,12 +6046,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Sya</t>
+          <t>Särna D</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -6061,12 +6061,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Säffle</t>
+          <t>Sätila</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6076,12 +6076,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Särna D</t>
+          <t>Sävsjö</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jönköpings län</t>
         </is>
       </c>
     </row>
@@ -6091,12 +6091,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Sätila</t>
+          <t>Sågen D</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -6106,12 +6106,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Sävsjö</t>
+          <t>Såtenäs</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Jönköpings län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6121,12 +6121,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Sågen D</t>
+          <t>Söderala D</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -6136,12 +6136,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Såtenäs</t>
+          <t>Söderby-Karlsäng D</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6151,12 +6151,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Söderala D</t>
+          <t>Söderbärke D</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Söderby-Karlsäng D</t>
+          <t>Söderköping</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -6181,12 +6181,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Söderbärke D</t>
+          <t>Södersel D</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -6196,12 +6196,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Söderköping</t>
+          <t>Södertälje</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -6211,12 +6211,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Södersel D</t>
+          <t>Södra Vi D</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Södertälje</t>
+          <t>Sölje D</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Södra Vi D</t>
+          <t>Söne</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6256,12 +6256,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Sölje D</t>
+          <t>Sörbytorp</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Söne</t>
+          <t>Talliden</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -6286,12 +6286,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Sörbytorp</t>
+          <t>Talljärv D</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -6301,12 +6301,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Talliden</t>
+          <t>Tavelsjö D</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -6316,12 +6316,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Talljärv D</t>
+          <t>Tingsryd-Degerhaga</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -6331,12 +6331,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tavelsjö D</t>
+          <t>Tjällmo D</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -6346,12 +6346,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Tingsryd-Degerhaga</t>
+          <t>Torsåker D</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -6361,12 +6361,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Tjällmo D</t>
+          <t>Traneberg</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6376,12 +6376,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Torsåker D</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -6391,12 +6391,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Traneberg</t>
+          <t>Trolleboda D</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Tryserum D</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -6421,12 +6421,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Trolleboda D</t>
+          <t>Trängslet</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -6436,12 +6436,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Tryserum D</t>
+          <t>Trökörna</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6451,12 +6451,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Trängslet</t>
+          <t>Tullus D</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -6466,12 +6466,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Trökörna</t>
+          <t>Tvingelshed</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Blekinge län</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tullus D</t>
+          <t>Tyllinge</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -6496,12 +6496,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tvingelshed</t>
+          <t>Tänger D</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Blekinge län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tyllinge</t>
+          <t>Tärendö D</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tänger D</t>
+          <t>Tånga</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6541,12 +6541,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tärendö D</t>
+          <t>Tåsan</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6556,12 +6556,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tånga</t>
+          <t>Töcksfors</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Tåsan</t>
+          <t>Uddevalla D</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -6586,12 +6586,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Töcksfors</t>
+          <t>Ullånger</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Uddevalla D</t>
+          <t>Ulricehamn</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -6616,12 +6616,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ullånger</t>
+          <t>Ulvsjön D</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -6631,12 +6631,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ulricehamn</t>
+          <t>Umeå-Röbäcksdalen</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -6646,12 +6646,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ulvsjön D</t>
+          <t>Ungsberg</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -6661,12 +6661,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Umeå-Röbäcksdalen</t>
+          <t>Uppsala</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6676,12 +6676,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ungsberg</t>
+          <t>Vadstena D</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -6691,12 +6691,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Uppsala</t>
+          <t>Vagnhärad D</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -6706,12 +6706,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Uppsala Aut</t>
+          <t>Vallbo</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -6721,12 +6721,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Vadstena D</t>
+          <t>Vallentuna</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Vagnhärad D</t>
+          <t>Valsjöbyn</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -6751,12 +6751,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Vallbo</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Hallands län</t>
         </is>
       </c>
     </row>
@@ -6766,12 +6766,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Vallentuna</t>
+          <t>Vassunda</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6781,12 +6781,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Valsjöbyn</t>
+          <t>Vattholma D</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Veddige D</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -6811,12 +6811,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Vassunda</t>
+          <t>Vedum</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Vattholma D</t>
+          <t>Vidsel</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -6841,12 +6841,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Veddige D</t>
+          <t>Vidsel Mo</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Hallands län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -6856,12 +6856,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Vedum</t>
+          <t>Vindeln-Sunnansjönäs</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Vidsel</t>
+          <t>Vingåker D</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Vidsel Mo</t>
+          <t>Virserum-Rödmossa</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Vindeln-Sunnansjönäs</t>
+          <t>Visby D</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>stad) i Gotlands kommun, västra Gotland (Gotlands län</t>
         </is>
       </c>
     </row>
@@ -6916,12 +6916,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Vingåker D</t>
+          <t>Vittinge</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6931,12 +6931,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Virserum-Rödmossa</t>
+          <t>Vomb</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -6946,12 +6946,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Visby D</t>
+          <t>Vrena</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Vittinge</t>
+          <t>Vuollerim</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -6976,12 +6976,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Vomb</t>
+          <t>Vällnora D</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Vrena</t>
+          <t>Vänersborg</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -7006,12 +7006,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Vuollerim</t>
+          <t>Vänge</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Norrbottens län</t>
+          <t>Gotlands län</t>
         </is>
       </c>
     </row>
@@ -7021,12 +7021,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Vällnora D</t>
+          <t>Vännäs D</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -7036,12 +7036,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Vänersborg</t>
+          <t>Värmlandsnäs-Ekenäs D</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Not found</t>
         </is>
       </c>
     </row>
@@ -7051,12 +7051,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Vänge</t>
+          <t>Väse D</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -7066,12 +7066,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Vännäs D</t>
+          <t>Västerhaninge</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Stockholms län</t>
         </is>
       </c>
     </row>
@@ -7081,12 +7081,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Värmlandsnäs-Ekenäs D</t>
+          <t>Västermo</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -7096,12 +7096,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Väse D</t>
+          <t>Västerås</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Västmanlands län</t>
         </is>
       </c>
     </row>
@@ -7111,12 +7111,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Västerhaninge</t>
+          <t>Västland</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Stockholms län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7126,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Västermo</t>
+          <t>Västvalla</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -7141,12 +7141,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Västerås</t>
+          <t>Våmhus D</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Västmanlands län</t>
+          <t>Dalarnas län</t>
         </is>
       </c>
     </row>
@@ -7156,12 +7156,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Västland</t>
+          <t>Vånga D</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Västvalla</t>
+          <t>Vårgårda D</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -7186,12 +7186,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Våmhus D</t>
+          <t>Ystad</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -7201,12 +7201,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Vånga D</t>
+          <t>Ytterberg D</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Östergötalands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Vårgårda D</t>
+          <t>Ytterhogdal</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -7231,12 +7231,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Ystad</t>
+          <t>Ytterrissjö D</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Ytterberg D</t>
+          <t>Ytterselö D</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -7261,12 +7261,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Ytterhogdal</t>
+          <t>Zinkgruvan</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -7276,12 +7276,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Ytterrissjö D</t>
+          <t>Älgarås D</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -7291,12 +7291,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Ytterselö D</t>
+          <t>Älghult</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -7306,12 +7306,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Zinkgruvan</t>
+          <t>Älvkarleby D</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -7321,12 +7321,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Älgarås D</t>
+          <t>Åby</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -7336,12 +7336,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Älghult</t>
+          <t>Åda</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Kronobergs län</t>
+          <t>Södermanlands län</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Älvkarleby D</t>
+          <t>Åhus</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Skåne län</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Åby</t>
+          <t>Åkroken D</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -7381,12 +7381,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Åda</t>
+          <t>Åminne D</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Södermanlands län</t>
+          <t>Kronobergs län</t>
         </is>
       </c>
     </row>
@@ -7396,12 +7396,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Åhus</t>
+          <t>Ånge-Parteboda D</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Åkroken D</t>
+          <t>Ånimskog</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Västernorrlands</t>
+          <t>Västra Götalands län</t>
         </is>
       </c>
     </row>
@@ -7426,12 +7426,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Åminne D</t>
+          <t>Årjäng</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Gotlands län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7441,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Ånge-Parteboda D</t>
+          <t>Åsarna D</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -7456,12 +7456,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ånimskog</t>
+          <t>Åsele</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Västra Götalands län</t>
+          <t>Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Årjäng</t>
+          <t>Åsnorrbodarna</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Värmlands län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -7486,12 +7486,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Åsarna D</t>
+          <t>Åtorp</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Jämtlands län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7501,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Åsele</t>
+          <t>Ödeshög D</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Västerbottens län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -7516,12 +7516,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Åsnorrbodarna</t>
+          <t>Ölands norra udde</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -7531,12 +7531,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Åtorp</t>
+          <t>Ön</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Jämtlands län</t>
         </is>
       </c>
     </row>
@@ -7546,12 +7546,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Ödeshög D</t>
+          <t>Öningaryd</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Östergötlands län</t>
+          <t>Kalmar län</t>
         </is>
       </c>
     </row>
@@ -7561,12 +7561,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ölands norra udde</t>
+          <t>Örebro D</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Örebro län</t>
         </is>
       </c>
     </row>
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ön</t>
+          <t>Örkelljunga</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -7591,12 +7591,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Öningaryd</t>
+          <t>Örnsköldsvik</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Kalmar län</t>
+          <t>Västernorrlands län</t>
         </is>
       </c>
     </row>
@@ -7606,12 +7606,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Örebro D</t>
+          <t>Östanvik</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Örebro län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -7621,12 +7621,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Örkelljunga</t>
+          <t>Österfärnebo</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Skåne län</t>
+          <t>Gävleborgs län</t>
         </is>
       </c>
     </row>
@@ -7636,12 +7636,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Örnsköldsvik</t>
+          <t>Östervåla D</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Västernorrlands län</t>
+          <t>Uppsala län</t>
         </is>
       </c>
     </row>
@@ -7651,12 +7651,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Östanvik</t>
+          <t>Östmark-Åsarna</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Dalarnas län</t>
+          <t>Värmlands län</t>
         </is>
       </c>
     </row>
@@ -7666,12 +7666,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Österfärnebo</t>
+          <t>Östra Husby D</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Gävleborgs län</t>
+          <t>Östergötlands län</t>
         </is>
       </c>
     </row>
@@ -7681,12 +7681,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Östervåla D</t>
+          <t>Övertorneå</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Uppsala län</t>
+          <t>Norrbottens län</t>
         </is>
       </c>
     </row>
@@ -7696,55 +7696,10 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Östmark-Åsarna</t>
+          <t>Övre Soppero</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
-        <is>
-          <t>Värmlands län</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>Östra Husby D</t>
-        </is>
-      </c>
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>Östergötlands län</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>Övertorneå</t>
-        </is>
-      </c>
-      <c r="C487" t="inlineStr">
-        <is>
-          <t>Norrbottens län</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>Övre Soppero</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
         <is>
           <t>Norrbottens län</t>
         </is>
